--- a/R/files_06_data_cleaning/file03_genes.xlsx
+++ b/R/files_06_data_cleaning/file03_genes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markuiz/Dropbox/Repos GitHub/CureQ/data_analysis_bml/R/files_06_data_cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_bml-r/data_analysis_bml/R/files_06_data_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F21C0D9-DF53-FC4F-9A8D-9688B7E7366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8F21C0D9-DF53-FC4F-9A8D-9688B7E7366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF72E54-98AF-4FDB-8B6B-E18F6C942483}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{045183BC-D36E-8544-B7DE-C8332738D39E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{045183BC-D36E-8544-B7DE-C8332738D39E}"/>
   </bookViews>
   <sheets>
     <sheet name="file02_genes" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>ABL1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>FMR1</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>no data</t>
   </si>
 </sst>
 </file>
@@ -915,13 +915,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE4484-A0BB-B940-BA6E-979EAE37359E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -943,7 +946,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -954,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -965,7 +968,7 @@
         <v>174.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -973,15 +976,15 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6">
         <v>71.099999999999994</v>
